--- a/files/Profs.xlsx
+++ b/files/Profs.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Latitude\Downloads\XML\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23808"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="196" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A2DF47E4-6756-41EA-AD65-9F32B18B2DFA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17784" windowHeight="5328"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,9 +34,18 @@
     <t>SecondName</t>
   </si>
   <si>
+    <t>Dept_Attachement</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
     <t>Email</t>
   </si>
   <si>
+    <t xml:space="preserve">Ghyslaine </t>
+  </si>
+  <si>
     <t>Parmentier</t>
   </si>
   <si>
@@ -50,6 +55,9 @@
     <t>+212 616-046242</t>
   </si>
   <si>
+    <t xml:space="preserve">Régine </t>
+  </si>
+  <si>
     <t>Genest</t>
   </si>
   <si>
@@ -59,126 +67,189 @@
     <t>+212 689-958400</t>
   </si>
   <si>
+    <t xml:space="preserve">Flora </t>
+  </si>
+  <si>
     <t>Fournier</t>
   </si>
   <si>
     <t>+212 705-540386</t>
   </si>
   <si>
+    <t xml:space="preserve">Éloïse </t>
+  </si>
+  <si>
     <t>Hébras</t>
   </si>
   <si>
     <t>+212 707-769916</t>
   </si>
   <si>
+    <t xml:space="preserve">Sabine </t>
+  </si>
+  <si>
     <t>Auclair</t>
   </si>
   <si>
     <t>+212 787-778917</t>
   </si>
   <si>
+    <t xml:space="preserve">Yvonne </t>
+  </si>
+  <si>
     <t>Hachette</t>
   </si>
   <si>
     <t>+212 107-989918</t>
   </si>
   <si>
+    <t xml:space="preserve">Émile </t>
+  </si>
+  <si>
     <t>Poulin</t>
   </si>
   <si>
     <t>+212 967-989919</t>
   </si>
   <si>
+    <t xml:space="preserve">Gaëtan </t>
+  </si>
+  <si>
     <t>Manaudou</t>
   </si>
   <si>
     <t>+212 347-769920</t>
   </si>
   <si>
+    <t xml:space="preserve">Alexis </t>
+  </si>
+  <si>
     <t>Vigouroux</t>
   </si>
   <si>
     <t>+212 347-158921</t>
   </si>
   <si>
+    <t xml:space="preserve">Jonathan </t>
+  </si>
+  <si>
     <t>Ballouhey</t>
   </si>
   <si>
     <t>+212 254-836542</t>
   </si>
   <si>
+    <t xml:space="preserve">Maurice </t>
+  </si>
+  <si>
     <t>Jacquier</t>
   </si>
   <si>
     <t>+212 479-769923</t>
   </si>
   <si>
+    <t xml:space="preserve">Adolphe </t>
+  </si>
+  <si>
     <t>Pascal</t>
   </si>
   <si>
     <t>+212 384-769924</t>
   </si>
   <si>
+    <t xml:space="preserve">Henri </t>
+  </si>
+  <si>
     <t>Lefrançois</t>
   </si>
   <si>
     <t>+212 987-769925</t>
   </si>
   <si>
+    <t xml:space="preserve">Martin </t>
+  </si>
+  <si>
     <t>Trottier</t>
   </si>
   <si>
     <t>+212 384-754875</t>
   </si>
   <si>
+    <t xml:space="preserve">Jean-Jacques </t>
+  </si>
+  <si>
     <t>Couvreur</t>
   </si>
   <si>
     <t>+212 568-326548</t>
   </si>
   <si>
+    <t xml:space="preserve">Grégoire </t>
+  </si>
+  <si>
     <t>Jeannin</t>
   </si>
   <si>
     <t>+212 589-784324</t>
   </si>
   <si>
+    <t xml:space="preserve">Joël </t>
+  </si>
+  <si>
     <t>Daucourt</t>
   </si>
   <si>
     <t>+212 384-458424</t>
   </si>
   <si>
+    <t xml:space="preserve">Désiré  </t>
+  </si>
+  <si>
     <t>Choffard</t>
   </si>
   <si>
     <t>+212 655-588871</t>
   </si>
   <si>
+    <t xml:space="preserve">Liliane </t>
+  </si>
+  <si>
     <t>Baume</t>
   </si>
   <si>
     <t>+212 554-588372</t>
   </si>
   <si>
+    <t xml:space="preserve">Yolande </t>
+  </si>
+  <si>
     <t>Berlioz</t>
   </si>
   <si>
     <t>+212 655-548879</t>
   </si>
   <si>
+    <t xml:space="preserve">Henriette </t>
+  </si>
+  <si>
     <t>Delon</t>
   </si>
   <si>
     <t>+212 655-588348</t>
   </si>
   <si>
+    <t xml:space="preserve">Nicoline </t>
+  </si>
+  <si>
     <t>Bougie</t>
   </si>
   <si>
     <t>+212 655-588349</t>
   </si>
   <si>
+    <t xml:space="preserve">Emmeline </t>
+  </si>
+  <si>
     <t>Duclos</t>
   </si>
   <si>
@@ -189,88 +260,13 @@
   </si>
   <si>
     <t>+212 878-555586</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>DeptAttachement</t>
-  </si>
-  <si>
-    <t>Ghyslaine</t>
-  </si>
-  <si>
-    <t>Régine</t>
-  </si>
-  <si>
-    <t>Sabine</t>
-  </si>
-  <si>
-    <t>Émile</t>
-  </si>
-  <si>
-    <t>Yvonne</t>
-  </si>
-  <si>
-    <t>Gaëtan</t>
-  </si>
-  <si>
-    <t>Alexis</t>
-  </si>
-  <si>
-    <t>Maurice</t>
-  </si>
-  <si>
-    <t>Jonathan</t>
-  </si>
-  <si>
-    <t>Adolphe</t>
-  </si>
-  <si>
-    <t>Henri</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Jean-Jacques</t>
-  </si>
-  <si>
-    <t>Joël</t>
-  </si>
-  <si>
-    <t>Grégoire</t>
-  </si>
-  <si>
-    <t>Désiré</t>
-  </si>
-  <si>
-    <t>Liliane</t>
-  </si>
-  <si>
-    <t>Yolande</t>
-  </si>
-  <si>
-    <t>Henriette</t>
-  </si>
-  <si>
-    <t>Nicoline</t>
-  </si>
-  <si>
-    <t>Emmeline</t>
-  </si>
-  <si>
-    <t>Éloïse</t>
-  </si>
-  <si>
-    <t>Flora</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -639,23 +635,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="41.6640625" customWidth="1"/>
+    <col min="5" max="5" width="41.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -663,441 +659,441 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E2" t="str">
         <f>CONCATENATE(A2,".",B2,"@etu.uae.ac.ma")</f>
-        <v>Ghyslaine.Parmentier@etu.uae.ac.ma</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Ghyslaine .Parmentier@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E25" si="0">CONCATENATE(A3,".",B3,"@etu.uae.ac.ma")</f>
-        <v>Régine.Genest@etu.uae.ac.ma</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Régine .Genest@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>Flora .Fournier@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>Éloïse .Hébras@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>Sabine .Auclair@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>Yvonne .Hachette@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>Émile .Poulin@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>Gaëtan .Manaudou@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>Alexis .Vigouroux@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>Jonathan .Ballouhey@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>Maurice .Jacquier@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>Adolphe .Pascal@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>Henri .Lefrançois@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>Martin .Trottier@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>Jean-Jacques .Couvreur@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>Grégoire .Jeannin@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>Joël .Daucourt@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>Désiré  .Choffard@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>Liliane .Baume@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>Yolande .Berlioz@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>Henriette .Delon@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>Nicoline .Bougie@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>Emmeline .Duclos@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
         <v>77</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" si="0"/>
-        <v>Flora.Fournier@etu.uae.ac.ma</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>Éloïse.Hébras@etu.uae.ac.ma</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>Sabine.Auclair@etu.uae.ac.ma</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="0"/>
-        <v>Yvonne.Hachette@etu.uae.ac.ma</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>Émile.Poulin@etu.uae.ac.ma</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>Gaëtan.Manaudou@etu.uae.ac.ma</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>Alexis.Vigouroux@etu.uae.ac.ma</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v>Jonathan.Ballouhey@etu.uae.ac.ma</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v>Maurice.Jacquier@etu.uae.ac.ma</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v>Adolphe.Pascal@etu.uae.ac.ma</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v>Henri.Lefrançois@etu.uae.ac.ma</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" t="str">
-        <f t="shared" si="0"/>
-        <v>Martin.Trottier@etu.uae.ac.ma</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" si="0"/>
-        <v>Jean-Jacques.Couvreur@etu.uae.ac.ma</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="0"/>
-        <v>Grégoire.Jeannin@etu.uae.ac.ma</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" si="0"/>
-        <v>Joël.Daucourt@etu.uae.ac.ma</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" si="0"/>
-        <v>Désiré.Choffard@etu.uae.ac.ma</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" si="0"/>
-        <v>Liliane.Baume@etu.uae.ac.ma</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" si="0"/>
-        <v>Yolande.Berlioz@etu.uae.ac.ma</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" t="str">
-        <f t="shared" si="0"/>
-        <v>Henriette.Delon@etu.uae.ac.ma</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" t="str">
-        <f t="shared" si="0"/>
-        <v>Nicoline.Bougie@etu.uae.ac.ma</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" t="str">
-        <f t="shared" si="0"/>
-        <v>Emmeline.Duclos@etu.uae.ac.ma</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>52</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>

--- a/files/Profs.xlsx
+++ b/files/Profs.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23808"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="196" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A2DF47E4-6756-41EA-AD65-9F32B18B2DFA}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Latitude\Downloads\XML\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17784" windowHeight="5328"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,18 +38,9 @@
     <t>SecondName</t>
   </si>
   <si>
-    <t>Dept_Attachement</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
-    <t xml:space="preserve">Ghyslaine </t>
-  </si>
-  <si>
     <t>Parmentier</t>
   </si>
   <si>
@@ -55,9 +50,6 @@
     <t>+212 616-046242</t>
   </si>
   <si>
-    <t xml:space="preserve">Régine </t>
-  </si>
-  <si>
     <t>Genest</t>
   </si>
   <si>
@@ -67,189 +59,126 @@
     <t>+212 689-958400</t>
   </si>
   <si>
-    <t xml:space="preserve">Flora </t>
-  </si>
-  <si>
     <t>Fournier</t>
   </si>
   <si>
     <t>+212 705-540386</t>
   </si>
   <si>
-    <t xml:space="preserve">Éloïse </t>
-  </si>
-  <si>
     <t>Hébras</t>
   </si>
   <si>
     <t>+212 707-769916</t>
   </si>
   <si>
-    <t xml:space="preserve">Sabine </t>
-  </si>
-  <si>
     <t>Auclair</t>
   </si>
   <si>
     <t>+212 787-778917</t>
   </si>
   <si>
-    <t xml:space="preserve">Yvonne </t>
-  </si>
-  <si>
     <t>Hachette</t>
   </si>
   <si>
     <t>+212 107-989918</t>
   </si>
   <si>
-    <t xml:space="preserve">Émile </t>
-  </si>
-  <si>
     <t>Poulin</t>
   </si>
   <si>
     <t>+212 967-989919</t>
   </si>
   <si>
-    <t xml:space="preserve">Gaëtan </t>
-  </si>
-  <si>
     <t>Manaudou</t>
   </si>
   <si>
     <t>+212 347-769920</t>
   </si>
   <si>
-    <t xml:space="preserve">Alexis </t>
-  </si>
-  <si>
     <t>Vigouroux</t>
   </si>
   <si>
     <t>+212 347-158921</t>
   </si>
   <si>
-    <t xml:space="preserve">Jonathan </t>
-  </si>
-  <si>
     <t>Ballouhey</t>
   </si>
   <si>
     <t>+212 254-836542</t>
   </si>
   <si>
-    <t xml:space="preserve">Maurice </t>
-  </si>
-  <si>
     <t>Jacquier</t>
   </si>
   <si>
     <t>+212 479-769923</t>
   </si>
   <si>
-    <t xml:space="preserve">Adolphe </t>
-  </si>
-  <si>
     <t>Pascal</t>
   </si>
   <si>
     <t>+212 384-769924</t>
   </si>
   <si>
-    <t xml:space="preserve">Henri </t>
-  </si>
-  <si>
     <t>Lefrançois</t>
   </si>
   <si>
     <t>+212 987-769925</t>
   </si>
   <si>
-    <t xml:space="preserve">Martin </t>
-  </si>
-  <si>
     <t>Trottier</t>
   </si>
   <si>
     <t>+212 384-754875</t>
   </si>
   <si>
-    <t xml:space="preserve">Jean-Jacques </t>
-  </si>
-  <si>
     <t>Couvreur</t>
   </si>
   <si>
     <t>+212 568-326548</t>
   </si>
   <si>
-    <t xml:space="preserve">Grégoire </t>
-  </si>
-  <si>
     <t>Jeannin</t>
   </si>
   <si>
     <t>+212 589-784324</t>
   </si>
   <si>
-    <t xml:space="preserve">Joël </t>
-  </si>
-  <si>
     <t>Daucourt</t>
   </si>
   <si>
     <t>+212 384-458424</t>
   </si>
   <si>
-    <t xml:space="preserve">Désiré  </t>
-  </si>
-  <si>
     <t>Choffard</t>
   </si>
   <si>
     <t>+212 655-588871</t>
   </si>
   <si>
-    <t xml:space="preserve">Liliane </t>
-  </si>
-  <si>
     <t>Baume</t>
   </si>
   <si>
     <t>+212 554-588372</t>
   </si>
   <si>
-    <t xml:space="preserve">Yolande </t>
-  </si>
-  <si>
     <t>Berlioz</t>
   </si>
   <si>
     <t>+212 655-548879</t>
   </si>
   <si>
-    <t xml:space="preserve">Henriette </t>
-  </si>
-  <si>
     <t>Delon</t>
   </si>
   <si>
     <t>+212 655-588348</t>
   </si>
   <si>
-    <t xml:space="preserve">Nicoline </t>
-  </si>
-  <si>
     <t>Bougie</t>
   </si>
   <si>
     <t>+212 655-588349</t>
   </si>
   <si>
-    <t xml:space="preserve">Emmeline </t>
-  </si>
-  <si>
     <t>Duclos</t>
   </si>
   <si>
@@ -260,13 +189,88 @@
   </si>
   <si>
     <t>+212 878-555586</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>DeptAttachement</t>
+  </si>
+  <si>
+    <t>Ghyslaine</t>
+  </si>
+  <si>
+    <t>Régine</t>
+  </si>
+  <si>
+    <t>Sabine</t>
+  </si>
+  <si>
+    <t>Émile</t>
+  </si>
+  <si>
+    <t>Yvonne</t>
+  </si>
+  <si>
+    <t>Gaëtan</t>
+  </si>
+  <si>
+    <t>Alexis</t>
+  </si>
+  <si>
+    <t>Maurice</t>
+  </si>
+  <si>
+    <t>Jonathan</t>
+  </si>
+  <si>
+    <t>Adolphe</t>
+  </si>
+  <si>
+    <t>Henri</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Jean-Jacques</t>
+  </si>
+  <si>
+    <t>Joël</t>
+  </si>
+  <si>
+    <t>Grégoire</t>
+  </si>
+  <si>
+    <t>Désiré</t>
+  </si>
+  <si>
+    <t>Liliane</t>
+  </si>
+  <si>
+    <t>Yolande</t>
+  </si>
+  <si>
+    <t>Henriette</t>
+  </si>
+  <si>
+    <t>Nicoline</t>
+  </si>
+  <si>
+    <t>Emmeline</t>
+  </si>
+  <si>
+    <t>Éloïse</t>
+  </si>
+  <si>
+    <t>Flora</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -635,23 +639,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="41.7109375" customWidth="1"/>
+    <col min="5" max="5" width="41.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -659,441 +663,441 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
       </c>
       <c r="E2" t="str">
         <f>CONCATENATE(A2,".",B2,"@etu.uae.ac.ma")</f>
-        <v>Ghyslaine .Parmentier@etu.uae.ac.ma</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>Ghyslaine.Parmentier@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E25" si="0">CONCATENATE(A3,".",B3,"@etu.uae.ac.ma")</f>
-        <v>Régine .Genest@etu.uae.ac.ma</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>Régine.Genest@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>Flora.Fournier@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>Éloïse.Hébras@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>Sabine.Auclair@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" si="0"/>
-        <v>Flora .Fournier@etu.uae.ac.ma</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="D7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>Yvonne.Hachette@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>Émile.Poulin@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>Gaëtan.Manaudou@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>Éloïse .Hébras@etu.uae.ac.ma</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="D10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>Alexis.Vigouroux@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>Jonathan.Ballouhey@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>Maurice.Jacquier@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>Adolphe.Pascal@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>Henri.Lefrançois@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>Martin.Trottier@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>Jean-Jacques.Couvreur@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>Grégoire.Jeannin@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>Joël.Daucourt@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>Désiré.Choffard@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>Liliane.Baume@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>Yolande.Berlioz@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>Henriette.Delon@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>Nicoline.Bougie@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>Emmeline.Duclos@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>Sabine .Auclair@etu.uae.ac.ma</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="0"/>
-        <v>Yvonne .Hachette@etu.uae.ac.ma</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>Émile .Poulin@etu.uae.ac.ma</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>Gaëtan .Manaudou@etu.uae.ac.ma</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>Alexis .Vigouroux@etu.uae.ac.ma</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v>Jonathan .Ballouhey@etu.uae.ac.ma</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v>Maurice .Jacquier@etu.uae.ac.ma</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v>Adolphe .Pascal@etu.uae.ac.ma</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v>Henri .Lefrançois@etu.uae.ac.ma</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" t="str">
-        <f t="shared" si="0"/>
-        <v>Martin .Trottier@etu.uae.ac.ma</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" si="0"/>
-        <v>Jean-Jacques .Couvreur@etu.uae.ac.ma</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
+      <c r="C25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
         <v>52</v>
-      </c>
-      <c r="B17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="0"/>
-        <v>Grégoire .Jeannin@etu.uae.ac.ma</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" si="0"/>
-        <v>Joël .Daucourt@etu.uae.ac.ma</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" si="0"/>
-        <v>Désiré  .Choffard@etu.uae.ac.ma</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" si="0"/>
-        <v>Liliane .Baume@etu.uae.ac.ma</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" si="0"/>
-        <v>Yolande .Berlioz@etu.uae.ac.ma</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" t="str">
-        <f t="shared" si="0"/>
-        <v>Henriette .Delon@etu.uae.ac.ma</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" t="str">
-        <f t="shared" si="0"/>
-        <v>Nicoline .Bougie@etu.uae.ac.ma</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24" t="str">
-        <f t="shared" si="0"/>
-        <v>Emmeline .Duclos@etu.uae.ac.ma</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" t="s">
-        <v>77</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
